--- a/Android/Basic/System.xlsx
+++ b/Android/Basic/System.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="131">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,13 +246,229 @@
   </si>
   <si>
     <t>Build 系统会在整个源码树中扫描名称为“Android.mk”的文件并根据其中的内容执行模块的编译。</t>
+  </si>
+  <si>
+    <t>第一行命令“source build/envsetup.sh”引入了 build/envsetup.sh脚本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该脚本的作用是初始化编译环境，并引入一些辅助的 Shell 函数，这其中就包括第二步使用 lunch 函数。</t>
+  </si>
+  <si>
+    <t>build/envsetup.sh脚本中function描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help()</t>
+  </si>
+  <si>
+    <t>get_abs_build_var()</t>
+  </si>
+  <si>
+    <t>get_build_var()</t>
+  </si>
+  <si>
+    <t>check_product()</t>
+  </si>
+  <si>
+    <t>check_variant()</t>
+  </si>
+  <si>
+    <t>setpaths()</t>
+  </si>
+  <si>
+    <t>printconfig()</t>
+  </si>
+  <si>
+    <t>set_stuff_for_environment()</t>
+  </si>
+  <si>
+    <t>set_sequence_number()</t>
+  </si>
+  <si>
+    <t>settitle()</t>
+  </si>
+  <si>
+    <t>choosetype()</t>
+  </si>
+  <si>
+    <t>chooseproduct()</t>
+  </si>
+  <si>
+    <t>choosevariant()</t>
+  </si>
+  <si>
+    <t>tapas()</t>
+  </si>
+  <si>
+    <t>choosecombo()</t>
+  </si>
+  <si>
+    <t>add_lunch_combo()</t>
+  </si>
+  <si>
+    <t>print_lunch_menu()</t>
+  </si>
+  <si>
+    <t>lunch()</t>
+  </si>
+  <si>
+    <t>m()</t>
+  </si>
+  <si>
+    <t>findmakefile()</t>
+  </si>
+  <si>
+    <t>mm()</t>
+  </si>
+  <si>
+    <t>mmm()</t>
+  </si>
+  <si>
+    <t>croot()</t>
+  </si>
+  <si>
+    <t>cproj()</t>
+  </si>
+  <si>
+    <t>pid()</t>
+  </si>
+  <si>
+    <t>systemstack()</t>
+  </si>
+  <si>
+    <t>gdbclient()</t>
+  </si>
+  <si>
+    <t>jgrep()</t>
+  </si>
+  <si>
+    <t>cgrep()</t>
+  </si>
+  <si>
+    <t>resgrep()</t>
+  </si>
+  <si>
+    <t>tracedmdump()</t>
+  </si>
+  <si>
+    <t>runhat()</t>
+  </si>
+  <si>
+    <t>getbugreports()</t>
+  </si>
+  <si>
+    <t>startviewserver()</t>
+  </si>
+  <si>
+    <t>stopviewserver()</t>
+  </si>
+  <si>
+    <t>isviewserverstarted()</t>
+  </si>
+  <si>
+    <t>smoketest()</t>
+  </si>
+  <si>
+    <t>runtest()</t>
+  </si>
+  <si>
+    <t>godir ()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示帮助信息</t>
+  </si>
+  <si>
+    <t>获取绝对变量</t>
+  </si>
+  <si>
+    <t>检查product</t>
+  </si>
+  <si>
+    <t>检查变量</t>
+  </si>
+  <si>
+    <t>设置文件路径</t>
+  </si>
+  <si>
+    <t>打印配置</t>
+  </si>
+  <si>
+    <t>设置环境变量</t>
+  </si>
+  <si>
+    <t>设置序号</t>
+  </si>
+  <si>
+    <t>设置标题</t>
+  </si>
+  <si>
+    <t>设置type</t>
+  </si>
+  <si>
+    <t>设置product</t>
+  </si>
+  <si>
+    <t>设置variant</t>
+  </si>
+  <si>
+    <t>功能同choosecombo</t>
+  </si>
+  <si>
+    <t>设置编译参数</t>
+  </si>
+  <si>
+    <t>添加lunch项目</t>
+  </si>
+  <si>
+    <t>打印lunch列表</t>
+  </si>
+  <si>
+    <t>配置lunch</t>
+  </si>
+  <si>
+    <t>make from top</t>
+  </si>
+  <si>
+    <t>查找makefile</t>
+  </si>
+  <si>
+    <t>make from current directory</t>
+  </si>
+  <si>
+    <t>make the supplied directories</t>
+  </si>
+  <si>
+    <t>回到根目录</t>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找java文件</t>
+  </si>
+  <si>
+    <t>查找c/cpp文件</t>
+  </si>
+  <si>
+    <t>跳到指定目录 405</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +489,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -287,6 +504,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -307,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -395,6 +628,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -405,7 +690,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -443,7 +728,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -466,17 +754,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3927,7 +4242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BT51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
@@ -4176,44 +4491,44 @@
     <row r="9" spans="1:72">
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="16"/>
       <c r="X9" s="7"/>
-      <c r="Z9" s="13" t="s">
+      <c r="Z9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="15"/>
-      <c r="AH9" s="13" t="s">
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="16"/>
+      <c r="AH9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="15"/>
-      <c r="AP9" s="13" t="s">
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="16"/>
+      <c r="AP9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="16"/>
       <c r="AW9" s="7"/>
       <c r="AX9" s="7"/>
-      <c r="AY9" s="13" t="s">
+      <c r="AY9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14"/>
-      <c r="BC9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="16"/>
       <c r="BD9" s="7"/>
       <c r="BE9" s="7"/>
       <c r="BF9" s="7"/>
@@ -4235,34 +4550,34 @@
     <row r="10" spans="1:72" ht="14.25" thickBot="1">
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="18"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="7"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="18"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="18"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="18"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="19"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="19"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="19"/>
       <c r="AW10" s="7"/>
       <c r="AX10" s="7"/>
-      <c r="AY10" s="16"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="18"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="18"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="19"/>
       <c r="BD10" s="7"/>
       <c r="BE10" s="7"/>
       <c r="BF10" s="7"/>
@@ -4576,65 +4891,65 @@
     <row r="16" spans="1:72">
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="13" t="s">
+      <c r="S16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="16"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="13" t="s">
+      <c r="AC16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="16"/>
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
-      <c r="AN16" s="13" t="s">
+      <c r="AN16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="16"/>
       <c r="AV16" s="7"/>
       <c r="AW16" s="7"/>
-      <c r="AX16" s="13" t="s">
+      <c r="AX16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AY16" s="14"/>
-      <c r="AZ16" s="14"/>
-      <c r="BA16" s="14"/>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="14"/>
-      <c r="BD16" s="14"/>
-      <c r="BE16" s="15"/>
+      <c r="AY16" s="15"/>
+      <c r="AZ16" s="15"/>
+      <c r="BA16" s="15"/>
+      <c r="BB16" s="15"/>
+      <c r="BC16" s="15"/>
+      <c r="BD16" s="15"/>
+      <c r="BE16" s="16"/>
       <c r="BF16" s="7"/>
       <c r="BG16" s="7"/>
-      <c r="BH16" s="13" t="s">
+      <c r="BH16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="BI16" s="14"/>
-      <c r="BJ16" s="14"/>
-      <c r="BK16" s="14"/>
-      <c r="BL16" s="14"/>
-      <c r="BM16" s="14"/>
-      <c r="BN16" s="14"/>
-      <c r="BO16" s="15"/>
+      <c r="BI16" s="15"/>
+      <c r="BJ16" s="15"/>
+      <c r="BK16" s="15"/>
+      <c r="BL16" s="15"/>
+      <c r="BM16" s="15"/>
+      <c r="BN16" s="15"/>
+      <c r="BO16" s="16"/>
       <c r="BP16" s="7"/>
       <c r="BQ16" s="7"/>
       <c r="BR16" s="7"/>
@@ -4644,55 +4959,55 @@
     <row r="17" spans="17:72" ht="14.25" thickBot="1">
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="18"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="19"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="18"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="19"/>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="18"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="18"/>
+      <c r="AS17" s="18"/>
+      <c r="AT17" s="18"/>
+      <c r="AU17" s="19"/>
       <c r="AV17" s="7"/>
       <c r="AW17" s="7"/>
-      <c r="AX17" s="16"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="17"/>
-      <c r="BE17" s="18"/>
+      <c r="AX17" s="17"/>
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="18"/>
+      <c r="BA17" s="18"/>
+      <c r="BB17" s="18"/>
+      <c r="BC17" s="18"/>
+      <c r="BD17" s="18"/>
+      <c r="BE17" s="19"/>
       <c r="BF17" s="7"/>
       <c r="BG17" s="7"/>
-      <c r="BH17" s="16"/>
-      <c r="BI17" s="17"/>
-      <c r="BJ17" s="17"/>
-      <c r="BK17" s="17"/>
-      <c r="BL17" s="17"/>
-      <c r="BM17" s="17"/>
-      <c r="BN17" s="17"/>
-      <c r="BO17" s="18"/>
+      <c r="BH17" s="17"/>
+      <c r="BI17" s="18"/>
+      <c r="BJ17" s="18"/>
+      <c r="BK17" s="18"/>
+      <c r="BL17" s="18"/>
+      <c r="BM17" s="18"/>
+      <c r="BN17" s="18"/>
+      <c r="BO17" s="19"/>
       <c r="BP17" s="7"/>
       <c r="BQ17" s="7"/>
       <c r="BR17" s="7"/>
@@ -4818,65 +5133,65 @@
     <row r="20" spans="17:72">
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="13" t="s">
+      <c r="S20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="16"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
-      <c r="AC20" s="13" t="s">
+      <c r="AC20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="16"/>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
-      <c r="AN20" s="13" t="s">
+      <c r="AN20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="14"/>
-      <c r="AR20" s="14"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="14"/>
-      <c r="AU20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="16"/>
       <c r="AV20" s="7"/>
       <c r="AW20" s="7"/>
-      <c r="AX20" s="13" t="s">
+      <c r="AX20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AY20" s="14"/>
-      <c r="AZ20" s="14"/>
-      <c r="BA20" s="14"/>
-      <c r="BB20" s="14"/>
-      <c r="BC20" s="14"/>
-      <c r="BD20" s="14"/>
-      <c r="BE20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+      <c r="BE20" s="16"/>
       <c r="BF20" s="7"/>
       <c r="BG20" s="7"/>
-      <c r="BH20" s="13" t="s">
+      <c r="BH20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="BI20" s="14"/>
-      <c r="BJ20" s="14"/>
-      <c r="BK20" s="14"/>
-      <c r="BL20" s="14"/>
-      <c r="BM20" s="14"/>
-      <c r="BN20" s="14"/>
-      <c r="BO20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="15"/>
+      <c r="BL20" s="15"/>
+      <c r="BM20" s="15"/>
+      <c r="BN20" s="15"/>
+      <c r="BO20" s="16"/>
       <c r="BP20" s="7"/>
       <c r="BQ20" s="7"/>
       <c r="BR20" s="7"/>
@@ -4886,55 +5201,55 @@
     <row r="21" spans="17:72" ht="14.25" thickBot="1">
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="18"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="19"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="18"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="19"/>
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
-      <c r="AN21" s="16"/>
-      <c r="AO21" s="17"/>
-      <c r="AP21" s="17"/>
-      <c r="AQ21" s="17"/>
-      <c r="AR21" s="17"/>
-      <c r="AS21" s="17"/>
-      <c r="AT21" s="17"/>
-      <c r="AU21" s="18"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="19"/>
       <c r="AV21" s="7"/>
       <c r="AW21" s="7"/>
-      <c r="AX21" s="16"/>
-      <c r="AY21" s="17"/>
-      <c r="AZ21" s="17"/>
-      <c r="BA21" s="17"/>
-      <c r="BB21" s="17"/>
-      <c r="BC21" s="17"/>
-      <c r="BD21" s="17"/>
-      <c r="BE21" s="18"/>
+      <c r="AX21" s="17"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="18"/>
+      <c r="BB21" s="18"/>
+      <c r="BC21" s="18"/>
+      <c r="BD21" s="18"/>
+      <c r="BE21" s="19"/>
       <c r="BF21" s="7"/>
       <c r="BG21" s="7"/>
-      <c r="BH21" s="16"/>
-      <c r="BI21" s="17"/>
-      <c r="BJ21" s="17"/>
-      <c r="BK21" s="17"/>
-      <c r="BL21" s="17"/>
-      <c r="BM21" s="17"/>
-      <c r="BN21" s="17"/>
-      <c r="BO21" s="18"/>
+      <c r="BH21" s="17"/>
+      <c r="BI21" s="18"/>
+      <c r="BJ21" s="18"/>
+      <c r="BK21" s="18"/>
+      <c r="BL21" s="18"/>
+      <c r="BM21" s="18"/>
+      <c r="BN21" s="18"/>
+      <c r="BO21" s="19"/>
       <c r="BP21" s="7"/>
       <c r="BQ21" s="7"/>
       <c r="BR21" s="7"/>
@@ -5354,44 +5669,44 @@
     <row r="29" spans="17:72" ht="14.25" thickBot="1">
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="13" t="s">
+      <c r="S29" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="16"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
-      <c r="AE29" s="13" t="s">
+      <c r="AE29" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="16"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
       <c r="AO29" s="7"/>
       <c r="AP29" s="7"/>
-      <c r="AQ29" s="13" t="s">
+      <c r="AQ29" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AR29" s="14"/>
-      <c r="AS29" s="14"/>
-      <c r="AT29" s="14"/>
-      <c r="AU29" s="14"/>
-      <c r="AV29" s="14"/>
-      <c r="AW29" s="14"/>
-      <c r="AX29" s="15"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="16"/>
       <c r="AY29" s="7"/>
       <c r="AZ29" s="7"/>
       <c r="BA29" s="7"/>
@@ -5418,38 +5733,38 @@
     <row r="30" spans="17:72" ht="14.25" thickBot="1">
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="18"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="19"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="17"/>
-      <c r="AL30" s="18"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="19"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
       <c r="AP30" s="7"/>
-      <c r="AQ30" s="16"/>
-      <c r="AR30" s="17"/>
-      <c r="AS30" s="17"/>
-      <c r="AT30" s="17"/>
-      <c r="AU30" s="17"/>
-      <c r="AV30" s="17"/>
-      <c r="AW30" s="17"/>
-      <c r="AX30" s="18"/>
+      <c r="AQ30" s="17"/>
+      <c r="AR30" s="18"/>
+      <c r="AS30" s="18"/>
+      <c r="AT30" s="18"/>
+      <c r="AU30" s="18"/>
+      <c r="AV30" s="18"/>
+      <c r="AW30" s="18"/>
+      <c r="AX30" s="19"/>
       <c r="AY30" s="7"/>
       <c r="AZ30" s="7"/>
       <c r="BA30" s="7"/>
@@ -5460,16 +5775,16 @@
       <c r="BF30" s="7"/>
       <c r="BG30" s="6"/>
       <c r="BH30" s="7"/>
-      <c r="BI30" s="13" t="s">
+      <c r="BI30" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="BJ30" s="14"/>
-      <c r="BK30" s="14"/>
-      <c r="BL30" s="14"/>
-      <c r="BM30" s="14"/>
-      <c r="BN30" s="14"/>
-      <c r="BO30" s="14"/>
-      <c r="BP30" s="15"/>
+      <c r="BJ30" s="15"/>
+      <c r="BK30" s="15"/>
+      <c r="BL30" s="15"/>
+      <c r="BM30" s="15"/>
+      <c r="BN30" s="15"/>
+      <c r="BO30" s="15"/>
+      <c r="BP30" s="16"/>
       <c r="BQ30" s="7"/>
       <c r="BR30" s="8"/>
       <c r="BS30" s="8"/>
@@ -5478,14 +5793,14 @@
     <row r="31" spans="17:72">
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
@@ -5512,14 +5827,14 @@
       <c r="BF31" s="7"/>
       <c r="BG31" s="6"/>
       <c r="BH31" s="7"/>
-      <c r="BI31" s="19"/>
-      <c r="BJ31" s="12"/>
-      <c r="BK31" s="12"/>
-      <c r="BL31" s="12"/>
-      <c r="BM31" s="12"/>
-      <c r="BN31" s="12"/>
-      <c r="BO31" s="12"/>
-      <c r="BP31" s="20"/>
+      <c r="BI31" s="20"/>
+      <c r="BJ31" s="21"/>
+      <c r="BK31" s="21"/>
+      <c r="BL31" s="21"/>
+      <c r="BM31" s="21"/>
+      <c r="BN31" s="21"/>
+      <c r="BO31" s="21"/>
+      <c r="BP31" s="22"/>
       <c r="BQ31" s="7"/>
       <c r="BR31" s="8"/>
       <c r="BS31" s="8"/>
@@ -5562,14 +5877,14 @@
       <c r="BF32" s="7"/>
       <c r="BG32" s="6"/>
       <c r="BH32" s="7"/>
-      <c r="BI32" s="16"/>
-      <c r="BJ32" s="17"/>
-      <c r="BK32" s="17"/>
-      <c r="BL32" s="17"/>
-      <c r="BM32" s="17"/>
-      <c r="BN32" s="17"/>
-      <c r="BO32" s="17"/>
-      <c r="BP32" s="18"/>
+      <c r="BI32" s="17"/>
+      <c r="BJ32" s="18"/>
+      <c r="BK32" s="18"/>
+      <c r="BL32" s="18"/>
+      <c r="BM32" s="18"/>
+      <c r="BN32" s="18"/>
+      <c r="BO32" s="18"/>
+      <c r="BP32" s="19"/>
       <c r="BQ32" s="7"/>
       <c r="BR32" s="8"/>
       <c r="BS32" s="8"/>
@@ -5578,44 +5893,44 @@
     <row r="33" spans="17:72">
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="13" t="s">
+      <c r="S33" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="16"/>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
-      <c r="AE33" s="13" t="s">
+      <c r="AE33" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="14"/>
-      <c r="AL33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="16"/>
       <c r="AM33" s="7"/>
       <c r="AN33" s="7"/>
       <c r="AO33" s="7"/>
       <c r="AP33" s="7"/>
-      <c r="AQ33" s="13" t="s">
+      <c r="AQ33" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AR33" s="14"/>
-      <c r="AS33" s="14"/>
-      <c r="AT33" s="14"/>
-      <c r="AU33" s="14"/>
-      <c r="AV33" s="14"/>
-      <c r="AW33" s="14"/>
-      <c r="AX33" s="15"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="16"/>
       <c r="AY33" s="7"/>
       <c r="AZ33" s="7"/>
       <c r="BA33" s="7"/>
@@ -5642,38 +5957,38 @@
     <row r="34" spans="17:72" ht="14.25" thickBot="1">
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="18"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="19"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="18"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
+      <c r="AJ34" s="18"/>
+      <c r="AK34" s="18"/>
+      <c r="AL34" s="19"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="7"/>
       <c r="AO34" s="7"/>
       <c r="AP34" s="7"/>
-      <c r="AQ34" s="16"/>
-      <c r="AR34" s="17"/>
-      <c r="AS34" s="17"/>
-      <c r="AT34" s="17"/>
-      <c r="AU34" s="17"/>
-      <c r="AV34" s="17"/>
-      <c r="AW34" s="17"/>
-      <c r="AX34" s="18"/>
+      <c r="AQ34" s="17"/>
+      <c r="AR34" s="18"/>
+      <c r="AS34" s="18"/>
+      <c r="AT34" s="18"/>
+      <c r="AU34" s="18"/>
+      <c r="AV34" s="18"/>
+      <c r="AW34" s="18"/>
+      <c r="AX34" s="19"/>
       <c r="AY34" s="7"/>
       <c r="AZ34" s="7"/>
       <c r="BA34" s="7"/>
@@ -5734,16 +6049,16 @@
       <c r="BF35" s="7"/>
       <c r="BG35" s="6"/>
       <c r="BH35" s="7"/>
-      <c r="BI35" s="21" t="s">
+      <c r="BI35" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="BJ35" s="14"/>
-      <c r="BK35" s="14"/>
-      <c r="BL35" s="14"/>
-      <c r="BM35" s="14"/>
-      <c r="BN35" s="14"/>
-      <c r="BO35" s="14"/>
-      <c r="BP35" s="15"/>
+      <c r="BJ35" s="15"/>
+      <c r="BK35" s="15"/>
+      <c r="BL35" s="15"/>
+      <c r="BM35" s="15"/>
+      <c r="BN35" s="15"/>
+      <c r="BO35" s="15"/>
+      <c r="BP35" s="16"/>
       <c r="BQ35" s="7"/>
       <c r="BR35" s="8"/>
       <c r="BS35" s="8"/>
@@ -5794,14 +6109,14 @@
       <c r="BF36" s="7"/>
       <c r="BG36" s="6"/>
       <c r="BH36" s="7"/>
-      <c r="BI36" s="19"/>
-      <c r="BJ36" s="12"/>
-      <c r="BK36" s="12"/>
-      <c r="BL36" s="12"/>
-      <c r="BM36" s="12"/>
-      <c r="BN36" s="12"/>
-      <c r="BO36" s="12"/>
-      <c r="BP36" s="20"/>
+      <c r="BI36" s="20"/>
+      <c r="BJ36" s="21"/>
+      <c r="BK36" s="21"/>
+      <c r="BL36" s="21"/>
+      <c r="BM36" s="21"/>
+      <c r="BN36" s="21"/>
+      <c r="BO36" s="21"/>
+      <c r="BP36" s="22"/>
       <c r="BQ36" s="7"/>
       <c r="BR36" s="8"/>
       <c r="BS36" s="8"/>
@@ -5810,43 +6125,43 @@
     <row r="37" spans="17:72" ht="14.25" thickBot="1">
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
-      <c r="S37" s="13" t="s">
+      <c r="S37" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="16"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
-      <c r="AE37" s="13" t="s">
+      <c r="AE37" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14"/>
-      <c r="AI37" s="14"/>
-      <c r="AJ37" s="14"/>
-      <c r="AK37" s="14"/>
-      <c r="AL37" s="15"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="15"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="15"/>
+      <c r="AJ37" s="15"/>
+      <c r="AK37" s="15"/>
+      <c r="AL37" s="16"/>
       <c r="AM37" s="7"/>
       <c r="AN37" s="7"/>
       <c r="AO37" s="7"/>
-      <c r="AQ37" s="13" t="s">
+      <c r="AQ37" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AR37" s="14"/>
-      <c r="AS37" s="14"/>
-      <c r="AT37" s="14"/>
-      <c r="AU37" s="14"/>
-      <c r="AV37" s="14"/>
-      <c r="AW37" s="14"/>
-      <c r="AX37" s="15"/>
+      <c r="AR37" s="15"/>
+      <c r="AS37" s="15"/>
+      <c r="AT37" s="15"/>
+      <c r="AU37" s="15"/>
+      <c r="AV37" s="15"/>
+      <c r="AW37" s="15"/>
+      <c r="AX37" s="16"/>
       <c r="AY37" s="7"/>
       <c r="AZ37" s="7"/>
       <c r="BA37" s="7"/>
@@ -5857,14 +6172,14 @@
       <c r="BF37" s="7"/>
       <c r="BG37" s="6"/>
       <c r="BH37" s="7"/>
-      <c r="BI37" s="16"/>
-      <c r="BJ37" s="17"/>
-      <c r="BK37" s="17"/>
-      <c r="BL37" s="17"/>
-      <c r="BM37" s="17"/>
-      <c r="BN37" s="17"/>
-      <c r="BO37" s="17"/>
-      <c r="BP37" s="18"/>
+      <c r="BI37" s="17"/>
+      <c r="BJ37" s="18"/>
+      <c r="BK37" s="18"/>
+      <c r="BL37" s="18"/>
+      <c r="BM37" s="18"/>
+      <c r="BN37" s="18"/>
+      <c r="BO37" s="18"/>
+      <c r="BP37" s="19"/>
       <c r="BQ37" s="7"/>
       <c r="BR37" s="8"/>
       <c r="BS37" s="8"/>
@@ -5873,37 +6188,37 @@
     <row r="38" spans="17:72" ht="14.25" thickBot="1">
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="18"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="19"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
-      <c r="AE38" s="16"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="17"/>
-      <c r="AJ38" s="17"/>
-      <c r="AK38" s="17"/>
-      <c r="AL38" s="18"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="18"/>
+      <c r="AK38" s="18"/>
+      <c r="AL38" s="19"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="7"/>
       <c r="AO38" s="7"/>
-      <c r="AQ38" s="16"/>
-      <c r="AR38" s="17"/>
-      <c r="AS38" s="17"/>
-      <c r="AT38" s="17"/>
-      <c r="AU38" s="17"/>
-      <c r="AV38" s="17"/>
-      <c r="AW38" s="17"/>
-      <c r="AX38" s="18"/>
+      <c r="AQ38" s="17"/>
+      <c r="AR38" s="18"/>
+      <c r="AS38" s="18"/>
+      <c r="AT38" s="18"/>
+      <c r="AU38" s="18"/>
+      <c r="AV38" s="18"/>
+      <c r="AW38" s="18"/>
+      <c r="AX38" s="19"/>
       <c r="AY38" s="7"/>
       <c r="AZ38" s="7"/>
       <c r="BA38" s="7"/>
@@ -6222,58 +6537,58 @@
     <row r="44" spans="17:72">
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
-      <c r="S44" s="13" t="s">
+      <c r="S44" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="16"/>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
-      <c r="AE44" s="13" t="s">
+      <c r="AE44" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="14"/>
-      <c r="AI44" s="14"/>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="14"/>
-      <c r="AL44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="15"/>
+      <c r="AI44" s="15"/>
+      <c r="AJ44" s="15"/>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="16"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="7"/>
       <c r="AO44" s="7"/>
       <c r="AP44" s="7"/>
-      <c r="AQ44" s="21" t="s">
+      <c r="AQ44" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AR44" s="14"/>
-      <c r="AS44" s="14"/>
-      <c r="AT44" s="14"/>
-      <c r="AU44" s="14"/>
-      <c r="AV44" s="14"/>
-      <c r="AW44" s="14"/>
-      <c r="AX44" s="15"/>
+      <c r="AR44" s="15"/>
+      <c r="AS44" s="15"/>
+      <c r="AT44" s="15"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="15"/>
+      <c r="AW44" s="15"/>
+      <c r="AX44" s="16"/>
       <c r="AY44" s="7"/>
       <c r="AZ44" s="7"/>
       <c r="BA44" s="7"/>
       <c r="BB44" s="7"/>
-      <c r="BC44" s="21" t="s">
+      <c r="BC44" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="BD44" s="14"/>
-      <c r="BE44" s="14"/>
-      <c r="BF44" s="14"/>
-      <c r="BG44" s="14"/>
-      <c r="BH44" s="14"/>
-      <c r="BI44" s="14"/>
-      <c r="BJ44" s="15"/>
+      <c r="BD44" s="15"/>
+      <c r="BE44" s="15"/>
+      <c r="BF44" s="15"/>
+      <c r="BG44" s="15"/>
+      <c r="BH44" s="15"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="16"/>
       <c r="BK44" s="7"/>
       <c r="BL44" s="7"/>
       <c r="BM44" s="7"/>
@@ -6288,50 +6603,50 @@
     <row r="45" spans="17:72" ht="14.25" thickBot="1">
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="18"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="19"/>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
-      <c r="AE45" s="16"/>
-      <c r="AF45" s="17"/>
-      <c r="AG45" s="17"/>
-      <c r="AH45" s="17"/>
-      <c r="AI45" s="17"/>
-      <c r="AJ45" s="17"/>
-      <c r="AK45" s="17"/>
-      <c r="AL45" s="18"/>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="18"/>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="18"/>
+      <c r="AI45" s="18"/>
+      <c r="AJ45" s="18"/>
+      <c r="AK45" s="18"/>
+      <c r="AL45" s="19"/>
       <c r="AM45" s="7"/>
       <c r="AN45" s="7"/>
       <c r="AO45" s="7"/>
       <c r="AP45" s="7"/>
-      <c r="AQ45" s="16"/>
-      <c r="AR45" s="17"/>
-      <c r="AS45" s="17"/>
-      <c r="AT45" s="17"/>
-      <c r="AU45" s="17"/>
-      <c r="AV45" s="17"/>
-      <c r="AW45" s="17"/>
-      <c r="AX45" s="18"/>
+      <c r="AQ45" s="17"/>
+      <c r="AR45" s="18"/>
+      <c r="AS45" s="18"/>
+      <c r="AT45" s="18"/>
+      <c r="AU45" s="18"/>
+      <c r="AV45" s="18"/>
+      <c r="AW45" s="18"/>
+      <c r="AX45" s="19"/>
       <c r="AY45" s="7"/>
       <c r="AZ45" s="7"/>
       <c r="BA45" s="7"/>
       <c r="BB45" s="7"/>
-      <c r="BC45" s="16"/>
-      <c r="BD45" s="17"/>
-      <c r="BE45" s="17"/>
-      <c r="BF45" s="17"/>
-      <c r="BG45" s="17"/>
-      <c r="BH45" s="17"/>
-      <c r="BI45" s="17"/>
-      <c r="BJ45" s="18"/>
+      <c r="BC45" s="17"/>
+      <c r="BD45" s="18"/>
+      <c r="BE45" s="18"/>
+      <c r="BF45" s="18"/>
+      <c r="BG45" s="18"/>
+      <c r="BH45" s="18"/>
+      <c r="BI45" s="18"/>
+      <c r="BJ45" s="19"/>
       <c r="BK45" s="7"/>
       <c r="BL45" s="7"/>
       <c r="BM45" s="7"/>
@@ -6404,58 +6719,58 @@
     <row r="47" spans="17:72">
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
-      <c r="S47" s="13" t="s">
+      <c r="S47" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="16"/>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
-      <c r="AE47" s="13" t="s">
+      <c r="AE47" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AF47" s="14"/>
-      <c r="AG47" s="14"/>
-      <c r="AH47" s="14"/>
-      <c r="AI47" s="14"/>
-      <c r="AJ47" s="14"/>
-      <c r="AK47" s="14"/>
-      <c r="AL47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="15"/>
+      <c r="AH47" s="15"/>
+      <c r="AI47" s="15"/>
+      <c r="AJ47" s="15"/>
+      <c r="AK47" s="15"/>
+      <c r="AL47" s="16"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="7"/>
       <c r="AO47" s="7"/>
       <c r="AP47" s="7"/>
-      <c r="AQ47" s="13" t="s">
+      <c r="AQ47" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AR47" s="14"/>
-      <c r="AS47" s="14"/>
-      <c r="AT47" s="14"/>
-      <c r="AU47" s="14"/>
-      <c r="AV47" s="14"/>
-      <c r="AW47" s="14"/>
-      <c r="AX47" s="15"/>
+      <c r="AR47" s="15"/>
+      <c r="AS47" s="15"/>
+      <c r="AT47" s="15"/>
+      <c r="AU47" s="15"/>
+      <c r="AV47" s="15"/>
+      <c r="AW47" s="15"/>
+      <c r="AX47" s="16"/>
       <c r="AY47" s="7"/>
       <c r="AZ47" s="7"/>
       <c r="BA47" s="7"/>
       <c r="BB47" s="7"/>
-      <c r="BC47" s="13" t="s">
+      <c r="BC47" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="BD47" s="14"/>
-      <c r="BE47" s="14"/>
-      <c r="BF47" s="14"/>
-      <c r="BG47" s="14"/>
-      <c r="BH47" s="14"/>
-      <c r="BI47" s="14"/>
-      <c r="BJ47" s="15"/>
+      <c r="BD47" s="15"/>
+      <c r="BE47" s="15"/>
+      <c r="BF47" s="15"/>
+      <c r="BG47" s="15"/>
+      <c r="BH47" s="15"/>
+      <c r="BI47" s="15"/>
+      <c r="BJ47" s="16"/>
       <c r="BK47" s="7"/>
       <c r="BL47" s="7"/>
       <c r="BM47" s="7"/>
@@ -6470,50 +6785,50 @@
     <row r="48" spans="17:72" ht="14.25" thickBot="1">
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="18"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="19"/>
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
-      <c r="AE48" s="16"/>
-      <c r="AF48" s="17"/>
-      <c r="AG48" s="17"/>
-      <c r="AH48" s="17"/>
-      <c r="AI48" s="17"/>
-      <c r="AJ48" s="17"/>
-      <c r="AK48" s="17"/>
-      <c r="AL48" s="18"/>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="18"/>
+      <c r="AG48" s="18"/>
+      <c r="AH48" s="18"/>
+      <c r="AI48" s="18"/>
+      <c r="AJ48" s="18"/>
+      <c r="AK48" s="18"/>
+      <c r="AL48" s="19"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="7"/>
       <c r="AO48" s="7"/>
       <c r="AP48" s="7"/>
-      <c r="AQ48" s="16"/>
-      <c r="AR48" s="17"/>
-      <c r="AS48" s="17"/>
-      <c r="AT48" s="17"/>
-      <c r="AU48" s="17"/>
-      <c r="AV48" s="17"/>
-      <c r="AW48" s="17"/>
-      <c r="AX48" s="18"/>
+      <c r="AQ48" s="17"/>
+      <c r="AR48" s="18"/>
+      <c r="AS48" s="18"/>
+      <c r="AT48" s="18"/>
+      <c r="AU48" s="18"/>
+      <c r="AV48" s="18"/>
+      <c r="AW48" s="18"/>
+      <c r="AX48" s="19"/>
       <c r="AY48" s="7"/>
       <c r="AZ48" s="7"/>
       <c r="BA48" s="7"/>
       <c r="BB48" s="7"/>
-      <c r="BC48" s="16"/>
-      <c r="BD48" s="17"/>
-      <c r="BE48" s="17"/>
-      <c r="BF48" s="17"/>
-      <c r="BG48" s="17"/>
-      <c r="BH48" s="17"/>
-      <c r="BI48" s="17"/>
-      <c r="BJ48" s="18"/>
+      <c r="BC48" s="17"/>
+      <c r="BD48" s="18"/>
+      <c r="BE48" s="18"/>
+      <c r="BF48" s="18"/>
+      <c r="BG48" s="18"/>
+      <c r="BH48" s="18"/>
+      <c r="BI48" s="18"/>
+      <c r="BJ48" s="19"/>
       <c r="BK48" s="7"/>
       <c r="BL48" s="7"/>
       <c r="BM48" s="7"/>
@@ -6701,12 +7016,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="BH16:BO17"/>
-    <mergeCell ref="S44:Z45"/>
-    <mergeCell ref="S47:Z48"/>
-    <mergeCell ref="AE44:AL45"/>
-    <mergeCell ref="AE47:AL48"/>
-    <mergeCell ref="AQ44:AX45"/>
     <mergeCell ref="BC44:BJ45"/>
     <mergeCell ref="AQ47:AX48"/>
     <mergeCell ref="BC47:BJ48"/>
@@ -6717,6 +7026,11 @@
     <mergeCell ref="AE37:AL38"/>
     <mergeCell ref="AQ37:AX38"/>
     <mergeCell ref="AE33:AL34"/>
+    <mergeCell ref="S44:Z45"/>
+    <mergeCell ref="S47:Z48"/>
+    <mergeCell ref="AE44:AL45"/>
+    <mergeCell ref="AE47:AL48"/>
+    <mergeCell ref="AQ44:AX45"/>
     <mergeCell ref="AQ33:AX34"/>
     <mergeCell ref="S20:Z21"/>
     <mergeCell ref="AC20:AJ21"/>
@@ -6728,6 +7042,7 @@
     <mergeCell ref="AE29:AL30"/>
     <mergeCell ref="AP9:AT10"/>
     <mergeCell ref="AY9:BC10"/>
+    <mergeCell ref="BH16:BO17"/>
     <mergeCell ref="S16:Z17"/>
     <mergeCell ref="AC16:AJ17"/>
     <mergeCell ref="AN16:AU17"/>
@@ -6748,10 +7063,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:D24"/>
+  <dimension ref="C3:AC69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="R68" sqref="R68:AC68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -6803,12 +7118,12 @@
       </c>
     </row>
     <row r="14" spans="3:4">
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6817,37 +7132,1508 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:29">
       <c r="D17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="23" t="s">
+    <row r="19" spans="4:29">
+      <c r="D19" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:29">
       <c r="D20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="23" t="s">
+    <row r="22" spans="4:29">
+      <c r="D22" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:29">
       <c r="D23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:29">
       <c r="D24" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="26" spans="4:29">
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="4:29">
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="4:29">
+      <c r="D29" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="4:29">
+      <c r="D30" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="32"/>
+    </row>
+    <row r="31" spans="4:29">
+      <c r="D31" s="25">
+        <v>1</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="29"/>
+    </row>
+    <row r="32" spans="4:29">
+      <c r="D32" s="25">
+        <v>2</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="29"/>
+    </row>
+    <row r="33" spans="4:29">
+      <c r="D33" s="25">
+        <v>3</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="29"/>
+    </row>
+    <row r="34" spans="4:29">
+      <c r="D34" s="25">
+        <v>4</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="29"/>
+    </row>
+    <row r="35" spans="4:29">
+      <c r="D35" s="25">
+        <v>5</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="29"/>
+    </row>
+    <row r="36" spans="4:29">
+      <c r="D36" s="25">
+        <v>6</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="29"/>
+    </row>
+    <row r="37" spans="4:29">
+      <c r="D37" s="25">
+        <v>7</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="29"/>
+    </row>
+    <row r="38" spans="4:29">
+      <c r="D38" s="25">
+        <v>8</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="29"/>
+    </row>
+    <row r="39" spans="4:29">
+      <c r="D39" s="25">
+        <v>9</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="29"/>
+    </row>
+    <row r="40" spans="4:29">
+      <c r="D40" s="25">
+        <v>10</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="29"/>
+    </row>
+    <row r="41" spans="4:29">
+      <c r="D41" s="25">
+        <v>11</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="29"/>
+    </row>
+    <row r="42" spans="4:29">
+      <c r="D42" s="25">
+        <v>12</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="29"/>
+    </row>
+    <row r="43" spans="4:29">
+      <c r="D43" s="25">
+        <v>13</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="29"/>
+    </row>
+    <row r="44" spans="4:29">
+      <c r="D44" s="25">
+        <v>14</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="29"/>
+    </row>
+    <row r="45" spans="4:29">
+      <c r="D45" s="25">
+        <v>15</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="29"/>
+    </row>
+    <row r="46" spans="4:29">
+      <c r="D46" s="25">
+        <v>16</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="29"/>
+    </row>
+    <row r="47" spans="4:29">
+      <c r="D47" s="25">
+        <v>17</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="29"/>
+    </row>
+    <row r="48" spans="4:29">
+      <c r="D48" s="25">
+        <v>18</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="29"/>
+    </row>
+    <row r="49" spans="4:29">
+      <c r="D49" s="25">
+        <v>19</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="29"/>
+    </row>
+    <row r="50" spans="4:29">
+      <c r="D50" s="25">
+        <v>20</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="29"/>
+    </row>
+    <row r="51" spans="4:29">
+      <c r="D51" s="25">
+        <v>21</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="29"/>
+    </row>
+    <row r="52" spans="4:29">
+      <c r="D52" s="25">
+        <v>22</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="29"/>
+    </row>
+    <row r="53" spans="4:29">
+      <c r="D53" s="25">
+        <v>23</v>
+      </c>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="28"/>
+      <c r="AC53" s="29"/>
+    </row>
+    <row r="54" spans="4:29">
+      <c r="D54" s="25">
+        <v>24</v>
+      </c>
+      <c r="E54" s="25"/>
+      <c r="F54" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="29"/>
+    </row>
+    <row r="55" spans="4:29">
+      <c r="D55" s="25">
+        <v>25</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="29"/>
+    </row>
+    <row r="56" spans="4:29">
+      <c r="D56" s="25">
+        <v>26</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="29"/>
+    </row>
+    <row r="57" spans="4:29">
+      <c r="D57" s="25">
+        <v>27</v>
+      </c>
+      <c r="E57" s="25"/>
+      <c r="F57" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="28"/>
+      <c r="AC57" s="29"/>
+    </row>
+    <row r="58" spans="4:29">
+      <c r="D58" s="25">
+        <v>28</v>
+      </c>
+      <c r="E58" s="25"/>
+      <c r="F58" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="28"/>
+      <c r="AA58" s="28"/>
+      <c r="AB58" s="28"/>
+      <c r="AC58" s="29"/>
+    </row>
+    <row r="59" spans="4:29">
+      <c r="D59" s="25">
+        <v>29</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="F59" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28"/>
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="29"/>
+    </row>
+    <row r="60" spans="4:29">
+      <c r="D60" s="25">
+        <v>30</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="29"/>
+    </row>
+    <row r="61" spans="4:29">
+      <c r="D61" s="25">
+        <v>31</v>
+      </c>
+      <c r="E61" s="25"/>
+      <c r="F61" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="28"/>
+      <c r="Z61" s="28"/>
+      <c r="AA61" s="28"/>
+      <c r="AB61" s="28"/>
+      <c r="AC61" s="29"/>
+    </row>
+    <row r="62" spans="4:29">
+      <c r="D62" s="25">
+        <v>32</v>
+      </c>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="28"/>
+      <c r="AA62" s="28"/>
+      <c r="AB62" s="28"/>
+      <c r="AC62" s="29"/>
+    </row>
+    <row r="63" spans="4:29">
+      <c r="D63" s="25">
+        <v>33</v>
+      </c>
+      <c r="E63" s="25"/>
+      <c r="F63" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="28"/>
+      <c r="AA63" s="28"/>
+      <c r="AB63" s="28"/>
+      <c r="AC63" s="29"/>
+    </row>
+    <row r="64" spans="4:29">
+      <c r="D64" s="25">
+        <v>34</v>
+      </c>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="28"/>
+      <c r="AB64" s="28"/>
+      <c r="AC64" s="29"/>
+    </row>
+    <row r="65" spans="4:29">
+      <c r="D65" s="25">
+        <v>35</v>
+      </c>
+      <c r="E65" s="25"/>
+      <c r="F65" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="28"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="28"/>
+      <c r="AB65" s="28"/>
+      <c r="AC65" s="29"/>
+    </row>
+    <row r="66" spans="4:29">
+      <c r="D66" s="25">
+        <v>36</v>
+      </c>
+      <c r="E66" s="25"/>
+      <c r="F66" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="28"/>
+      <c r="AA66" s="28"/>
+      <c r="AB66" s="28"/>
+      <c r="AC66" s="29"/>
+    </row>
+    <row r="67" spans="4:29">
+      <c r="D67" s="25">
+        <v>37</v>
+      </c>
+      <c r="E67" s="25"/>
+      <c r="F67" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="28"/>
+      <c r="AA67" s="28"/>
+      <c r="AB67" s="28"/>
+      <c r="AC67" s="29"/>
+    </row>
+    <row r="68" spans="4:29">
+      <c r="D68" s="25">
+        <v>38</v>
+      </c>
+      <c r="E68" s="25"/>
+      <c r="F68" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="28"/>
+      <c r="V68" s="28"/>
+      <c r="W68" s="28"/>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="28"/>
+      <c r="Z68" s="28"/>
+      <c r="AA68" s="28"/>
+      <c r="AB68" s="28"/>
+      <c r="AC68" s="29"/>
+    </row>
+    <row r="69" spans="4:29">
+      <c r="D69" s="25">
+        <v>39</v>
+      </c>
+      <c r="E69" s="25"/>
+      <c r="F69" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="S69" s="28"/>
+      <c r="T69" s="28"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="28"/>
+      <c r="W69" s="28"/>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="28"/>
+      <c r="AA69" s="28"/>
+      <c r="AB69" s="28"/>
+      <c r="AC69" s="29"/>
+    </row>
   </sheetData>
+  <mergeCells count="120">
+    <mergeCell ref="R69:AC69"/>
+    <mergeCell ref="R63:AC63"/>
+    <mergeCell ref="R64:AC64"/>
+    <mergeCell ref="R65:AC65"/>
+    <mergeCell ref="R66:AC66"/>
+    <mergeCell ref="R67:AC67"/>
+    <mergeCell ref="R68:AC68"/>
+    <mergeCell ref="R57:AC57"/>
+    <mergeCell ref="R58:AC58"/>
+    <mergeCell ref="R59:AC59"/>
+    <mergeCell ref="R60:AC60"/>
+    <mergeCell ref="R61:AC61"/>
+    <mergeCell ref="R62:AC62"/>
+    <mergeCell ref="R51:AC51"/>
+    <mergeCell ref="R52:AC52"/>
+    <mergeCell ref="R53:AC53"/>
+    <mergeCell ref="R54:AC54"/>
+    <mergeCell ref="R55:AC55"/>
+    <mergeCell ref="R56:AC56"/>
+    <mergeCell ref="R45:AC45"/>
+    <mergeCell ref="R46:AC46"/>
+    <mergeCell ref="R47:AC47"/>
+    <mergeCell ref="R48:AC48"/>
+    <mergeCell ref="R49:AC49"/>
+    <mergeCell ref="R50:AC50"/>
+    <mergeCell ref="R39:AC39"/>
+    <mergeCell ref="R40:AC40"/>
+    <mergeCell ref="R41:AC41"/>
+    <mergeCell ref="R42:AC42"/>
+    <mergeCell ref="R43:AC43"/>
+    <mergeCell ref="R44:AC44"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="R31:AC31"/>
+    <mergeCell ref="R32:AC32"/>
+    <mergeCell ref="R33:AC33"/>
+    <mergeCell ref="R34:AC34"/>
+    <mergeCell ref="R35:AC35"/>
+    <mergeCell ref="R36:AC36"/>
+    <mergeCell ref="R37:AC37"/>
+    <mergeCell ref="R38:AC38"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="R30:AC30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F65:Q65"/>
+    <mergeCell ref="F66:Q66"/>
+    <mergeCell ref="F67:Q67"/>
+    <mergeCell ref="F68:Q68"/>
+    <mergeCell ref="F69:Q69"/>
+    <mergeCell ref="F58:Q58"/>
+    <mergeCell ref="F59:Q59"/>
+    <mergeCell ref="F60:Q60"/>
+    <mergeCell ref="F61:Q61"/>
+    <mergeCell ref="F62:Q62"/>
+    <mergeCell ref="F63:Q63"/>
+    <mergeCell ref="F50:Q50"/>
+    <mergeCell ref="F51:Q51"/>
+    <mergeCell ref="F52:Q52"/>
+    <mergeCell ref="F53:Q53"/>
+    <mergeCell ref="F54:Q54"/>
+    <mergeCell ref="F55:Q55"/>
+    <mergeCell ref="F43:Q43"/>
+    <mergeCell ref="F44:Q44"/>
+    <mergeCell ref="F45:Q45"/>
+    <mergeCell ref="F46:Q46"/>
+    <mergeCell ref="F47:Q47"/>
+    <mergeCell ref="F48:Q48"/>
+    <mergeCell ref="F31:Q31"/>
+    <mergeCell ref="F32:Q32"/>
+    <mergeCell ref="F33:Q33"/>
+    <mergeCell ref="F34:Q34"/>
+    <mergeCell ref="F35:Q35"/>
+    <mergeCell ref="F36:Q36"/>
+    <mergeCell ref="F37:Q37"/>
+    <mergeCell ref="F64:Q64"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F57:Q57"/>
+    <mergeCell ref="F56:Q56"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F49:Q49"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F42:Q42"/>
+    <mergeCell ref="F39:Q39"/>
+    <mergeCell ref="F40:Q40"/>
+    <mergeCell ref="F41:Q41"/>
+    <mergeCell ref="F38:Q38"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F30:Q30"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
